--- a/misc/boat_logs/ScandyMaintenanceLog.xlsx
+++ b/misc/boat_logs/ScandyMaintenanceLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\boat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\misc\boat_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>new transom saver/switched anchors</t>
+  </si>
+  <si>
+    <t>installed winch strap protector</t>
   </si>
 </sst>
 </file>
@@ -495,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O38" sqref="O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -884,6 +887,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F23" s="1">
+        <v>43622</v>
+      </c>
+      <c r="X23" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/misc/boat_logs/ScandyMaintenanceLog.xlsx
+++ b/misc/boat_logs/ScandyMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -89,9 +89,6 @@
     <t>MAINTENANCE/CHECKS</t>
   </si>
   <si>
-    <t>NEED</t>
-  </si>
-  <si>
     <t>Repair Location</t>
   </si>
   <si>
@@ -180,6 +177,12 @@
   </si>
   <si>
     <t>installed winch strap protector</t>
+  </si>
+  <si>
+    <t>replaced prop due to stripped hub. Suspect this, clam bag tangle, and clogged waterline caused warning beeps</t>
+  </si>
+  <si>
+    <t>install GPS mount</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,10 +523,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -536,33 +539,30 @@
       <c r="D2">
         <v>40489</v>
       </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
         <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
         <v>8</v>
@@ -600,16 +600,16 @@
         <v>9</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -618,7 +618,7 @@
         <v>13</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="s">
         <v>11</v>
@@ -630,7 +630,7 @@
         <v>10</v>
       </c>
       <c r="T8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U8" t="s">
         <v>12</v>
@@ -639,7 +639,7 @@
         <v>15</v>
       </c>
       <c r="W8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="X8" t="s">
         <v>7</v>
@@ -653,35 +653,35 @@
         <v>43151</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T9" t="s">
         <v>16</v>
       </c>
       <c r="U9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
@@ -692,28 +692,28 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -724,16 +724,16 @@
         <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>140</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -759,46 +759,46 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+      <c r="T13" t="s">
         <v>43</v>
       </c>
-      <c r="R13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" t="s">
+      <c r="V13" t="s">
+        <v>23</v>
+      </c>
+      <c r="W13" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" t="s">
         <v>44</v>
-      </c>
-      <c r="V13" t="s">
-        <v>24</v>
-      </c>
-      <c r="W13" t="s">
-        <v>24</v>
-      </c>
-      <c r="X13" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -806,10 +806,10 @@
         <v>43357</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -817,10 +817,10 @@
         <v>43503</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="X15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
@@ -831,10 +831,10 @@
         <v>140</v>
       </c>
       <c r="T16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
@@ -868,7 +868,7 @@
         <v>43614</v>
       </c>
       <c r="X20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>43620</v>
       </c>
       <c r="X22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
@@ -892,7 +892,34 @@
         <v>43622</v>
       </c>
       <c r="X23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43632</v>
+      </c>
+      <c r="B24">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43654</v>
+      </c>
+      <c r="B25">
+        <v>120</v>
+      </c>
+      <c r="X25" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F26" s="1">
+        <v>43656</v>
+      </c>
+      <c r="X26" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/misc/boat_logs/ScandyMaintenanceLog.xlsx
+++ b/misc/boat_logs/ScandyMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>install GPS mount</t>
+  </si>
+  <si>
+    <t>new water pump impeller/lower unit oil/steering adjustment/anodes</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X26"/>
+  <dimension ref="A1:X28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,6 +925,22 @@
         <v>52</v>
       </c>
     </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43657</v>
+      </c>
+      <c r="B27">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="F28" s="1">
+        <v>43661</v>
+      </c>
+      <c r="X28" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/misc/boat_logs/ScandyMaintenanceLog.xlsx
+++ b/misc/boat_logs/ScandyMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>new water pump impeller/lower unit oil/steering adjustment/anodes</t>
+  </si>
+  <si>
+    <t>new thermostat to fix alarm at higher rpms</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X28"/>
+  <dimension ref="A1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S34" sqref="S34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,6 +944,25 @@
         <v>53</v>
       </c>
     </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43686</v>
+      </c>
+      <c r="B29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43689</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="X30" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
